--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istar\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5F863-2813-41B8-9236-BA0D5EA71766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D9AD0-A214-4B5F-97AD-991320D6B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>index</t>
   </si>
@@ -55,6 +55,54 @@
   </si>
   <si>
     <t>attackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111112A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111113A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111114A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111115B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111116B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111117B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,17 +110,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -380,22 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -445,6 +493,162 @@
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>700</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>900</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4000</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>6000</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>8000</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istar\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D9AD0-A214-4B5F-97AD-991320D6B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B98C3-C80F-4089-B673-D52E2EE00DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -110,17 +110,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -431,19 +431,19 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,19 +483,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,13 +515,13 @@
         <v>200</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,13 +541,13 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,13 +567,13 @@
         <v>250</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B98C3-C80F-4089-B673-D52E2EE00DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BAE145-78AA-4C43-808C-9D3EF91F5235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>index</t>
   </si>
@@ -104,6 +104,18 @@
   <si>
     <t>Boss3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockBackAmount</t>
+  </si>
+  <si>
+    <t>knockBackTime</t>
+  </si>
+  <si>
+    <t>baseRange</t>
+  </si>
+  <si>
+    <t>baserotationSpeed</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,11 +451,14 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,10 +481,22 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,10 +519,22 @@
         <v>1</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,10 +557,22 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,10 +595,22 @@
         <v>2</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -570,10 +633,22 @@
         <v>4</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -596,10 +671,22 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,10 +709,22 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -648,7 +747,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2학년 팀플\0414\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF2FD0-5DCB-414F-A220-7B852723B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1B0D8-22E7-4A64-AFCC-6D718F998DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2475" windowWidth="22350" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -107,11 +107,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,7 +423,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -632,7 +638,7 @@
         <v>1.2</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -762,6 +768,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091A881-E4CF-49D2-B2BF-DAD2B7C8D84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E08F647-7F3E-442A-A5FA-AB2D4682453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>baserotationSpeed</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>viewingAngle</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -431,9 +434,10 @@
     <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -473,8 +477,11 @@
       <c r="M1" t="s">
         <v>22</v>
       </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,8 +521,11 @@
       <c r="M2">
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -555,8 +565,11 @@
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3">
+        <v>180</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -596,8 +609,11 @@
       <c r="M4">
         <v>2</v>
       </c>
+      <c r="N4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -637,8 +653,11 @@
       <c r="M5">
         <v>3</v>
       </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -678,8 +697,11 @@
       <c r="M6">
         <v>4</v>
       </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -719,8 +741,11 @@
       <c r="M7">
         <v>4</v>
       </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -759,6 +784,9 @@
       </c>
       <c r="M8">
         <v>4</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA7141-5DF9-4ADF-B9C4-0533994C9ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4B73D5-D5BC-4398-8360-4953D16D9B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C18A1-C161-4EF8-8D06-CC1D13DE30EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D2385-F434-4D2F-95F0-43ABAE3177BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>TestEnemy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>baseDamage</t>
   </si>
@@ -61,21 +58,12 @@
     <t>111113A</t>
   </si>
   <si>
-    <t>111116B</t>
-  </si>
-  <si>
-    <t>Boss2</t>
-  </si>
-  <si>
     <t>111114A</t>
   </si>
   <si>
     <t>111112A</t>
   </si>
   <si>
-    <t>Boss1</t>
-  </si>
-  <si>
     <t>111111A</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>자폭형 드론</t>
   </si>
   <si>
-    <t>111115B</t>
-  </si>
-  <si>
     <t>viewingAngle</t>
   </si>
   <si>
@@ -107,17 +92,33 @@
   </si>
   <si>
     <t>additionalMoveSpeed</t>
+  </si>
+  <si>
+    <t>111115A</t>
+  </si>
+  <si>
+    <t>방어형 로봇</t>
+  </si>
+  <si>
+    <t>회전형 로봇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,8 +143,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -327,7 +329,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -336,7 +338,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -616,10 +618,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q8" sqref="A8:Q8"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,55 +643,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -697,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -718,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>0.8</v>
@@ -733,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O2">
         <v>5</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -750,19 +752,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
       </c>
       <c r="G3">
         <v>1.5</v>
@@ -771,28 +773,28 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -803,52 +805,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>12.5</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1.2</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
       <c r="N4">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -856,52 +858,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>30</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -909,34 +911,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>400</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -948,70 +950,17 @@
         <v>30</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>600</v>
-      </c>
-      <c r="F7">
-        <v>400</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D2385-F434-4D2F-95F0-43ABAE3177BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB7B03-A551-47A1-8E26-B2CD0B92CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2940" windowWidth="34560" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>방어형 로봇</t>
   </si>
   <si>
-    <t>회전형 로봇</t>
+    <t>돌진형 로봇</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -944,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O6">
         <v>4</v>

--- a/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/EnemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB7B03-A551-47A1-8E26-B2CD0B92CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50A269-4C7D-4A24-A20E-7F99138B7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="2940" windowWidth="34560" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>baseDamage</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>돌진형 로봇</t>
+  </si>
+  <si>
+    <t>111116A</t>
+  </si>
+  <si>
+    <t>근접 로봇</t>
+  </si>
+  <si>
+    <t>111117A</t>
+  </si>
+  <si>
+    <t>111118A</t>
+  </si>
+  <si>
+    <t>지뢰 로봇</t>
   </si>
 </sst>
 </file>
@@ -618,10 +633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -782,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -814,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -826,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -835,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -947,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -956,6 +971,165 @@
         <v>2</v>
       </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>1.4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>180</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1.4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
